--- a/fhir/cimi-element-Signature.xlsx
+++ b/fhir/cimi-element-Signature.xlsx
@@ -307,7 +307,7 @@
     <t>The mime type of an attachment. Any valid mime type is allowed.</t>
   </si>
   <si>
-    <t>http://www.rfc-editor.org/bcp/bcp13.txt</t>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes</t>
   </si>
   <si>
     <t>Signature.blob</t>
